--- a/data/raw/raw_nasdaq_close.xlsx
+++ b/data/raw/raw_nasdaq_close.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2753"/>
+  <dimension ref="A1:B2756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22470,6 +22470,30 @@
         <v>23578.130859375</v>
       </c>
     </row>
+    <row r="2754">
+      <c r="A2754" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B2754" t="n">
+        <v>23545.900390625</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B2755" t="n">
+        <v>23576.490234375</v>
+      </c>
+    </row>
+    <row r="2756">
+      <c r="A2756" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B2756" t="n">
+        <v>23491.4375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
